--- a/input/Java_Hotel_assingment.xlsx
+++ b/input/Java_Hotel_assingment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIVAGAMI\eclipse-workspace\Food_application\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E5527-A9AA-433A-98E1-E4F4E623EFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC6CFF-0756-4D94-8A35-BBC019503065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{3EF13A9E-E041-4EA5-A92C-9E892B3AEB68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3EF13A9E-E041-4EA5-A92C-9E892B3AEB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Thalapakatti" sheetId="5" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Spring Rolls</t>
   </si>
   <si>
-    <t xml:space="preserve">Paneer Tikka </t>
-  </si>
-  <si>
     <t>Butter Chicken</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Garlic Bread</t>
+  </si>
+  <si>
+    <t>Paneer Tikka</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F5B75E-DB48-45C2-ADF8-83510CFE04DA}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5">
         <v>50</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>130</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>70</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <v>120</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>180</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>250</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>130</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>150</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>120</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>180</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>80</v>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B253226-D847-4527-A8B4-D6180B286C07}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
